--- a/pred_ohlcv/54_21/2020-01-24 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ENJ ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-43936.5595012788</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-8836.609701278798</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>255898.3974987212</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>358931.0394987212</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>332009.3269987212</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>332009.3269987212</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>363063.6103987212</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>340962.8274987212</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>318805.2034987212</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>345514.3810987212</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>345640.3810987212</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>350180.6996987212</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>377084.4755987212</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>364276.9941987212</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>361210.1053987212</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>457102.7217987212</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>466718.5611987212</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>467718.5611987212</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>479133.8316987212</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>478955.7477987212</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>464014.0432987212</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>478605.8582987212</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>525955.2386987212</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>513866.7387987212</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>513866.7387987212</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>484373.3377987212</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>474633.4526987211</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>474133.4526987211</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>457491.6562987212</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>457491.6562987212</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>627383.9606396225</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>688356.4822896008</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>686091.7572896008</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>805624.8592896007</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>805624.8592896007</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>818993.8328896008</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>827574.2032896008</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>826762.1804896008</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>847647.9563156413</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>839747.5770156413</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>797411.5560156413</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>797411.5560156413</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>797411.5560156413</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>878362.0044156413</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>869688.2255156413</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>857309.0258156413</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>851927.3678156412</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>849070.7861156414</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>863207.5913156414</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>407716.2830015282</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>406919.4226015282</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>550628.8428511707</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>561934.2196511707</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>559934.2196511707</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>560479.5279511707</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>555583.7622511707</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>552203.8060511707</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>540203.8060511707</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>537878.1751511707</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>546368.6640511707</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>597408.8062511707</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>597408.8062511707</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>588738.7982511707</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>590281.5554511707</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>590281.5554511707</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>590281.5554511707</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>596884.1722511706</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>617539.4071511707</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>617539.4071511707</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>617539.4071511707</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>639810.3165511707</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>639810.3165511707</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>630553.6635511706</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>1704885.346503097</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>1654180.619103097</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>1679018.849303097</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>1613357.547768503</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>1604424.023968503</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>1518746.183768503</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>1500349.153368503</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>1457264.102068503</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>1457264.102068503</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>1457264.102068503</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>1457264.102068503</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>1411255.451568503</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>1448976.734768503</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>1463494.595668503</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>1526522.729968503</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>1525807.729968503</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>1556337.729968503</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>1550977.298468503</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>1566597.942936788</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>1468956.423263074</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>1475429.158863074</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>1518371.033870702</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>1445968.381670702</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>1448041.397270703</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>1448032.581070703</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>1448032.581070703</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>1451512.081770702</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>1416854.687570703</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>1428860.930170703</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>1428838.292623454</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>1418838.292623454</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>1418838.292623454</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>1435181.891923453</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>1449263.881623453</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>1445456.089523453</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>1439661.191923453</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>1444297.511123453</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>1444297.511123453</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>1448380.954823453</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>1450758.259569629</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>1456430.745569629</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>1460973.195669629</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>1461197.637769629</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>1457768.942269629</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>1457760.595869629</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>1471163.310169629</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>1471262.700469629</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>1470542.700469629</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>1488347.286924941</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>1485748.727624941</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>1485748.727624941</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>1506878.126024941</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>1503995.766024941</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>1507727.222524941</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>1507727.222524941</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>1507727.222524941</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>1496377.222524941</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>1499697.222524941</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>1482879.397824941</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>1482879.397824941</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ENJ ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-28179.65580127879</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-10677.17380127879</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-10542.17380127879</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4622.173801278794</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4622.173801278794</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4622.173801278794</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2942.592098721207</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>11225.22479872121</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>7225.224798721207</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>8226.144698721208</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-41325.57350127879</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-40825.57350127879</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3400.172498721207</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>255898.3974987212</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>358931.0394987212</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>332009.3269987212</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>332009.3269987212</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>363063.6103987212</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>340962.8274987212</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>318805.2034987212</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>345514.3810987212</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>345640.3810987212</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>350180.6996987212</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>377084.4755987212</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>364276.9941987212</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>352195.5995987212</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>361210.1053987212</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>457102.7217987212</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>466718.5611987212</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>467718.5611987212</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>479133.8316987212</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>478955.7477987212</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>464014.0432987212</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>478605.8582987212</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>525955.2386987212</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>513866.7387987212</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>513866.7387987212</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>484373.3377987212</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>474633.4526987211</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>474133.4526987211</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>457491.6562987212</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>457491.6562987212</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>627383.9606396225</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>688356.4822896008</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>686091.7572896008</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>805624.8592896007</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>805624.8592896007</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>818993.8328896008</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>827574.2032896008</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>826762.1804896008</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>847647.9563156413</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>839747.5770156413</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>797411.5560156413</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>797411.5560156413</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>797411.5560156413</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>878362.0044156413</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>869688.2255156413</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>857309.0258156413</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>851927.3678156412</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>849070.7861156414</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>863207.5913156414</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>407716.2830015282</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>406919.4226015282</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>550628.8428511707</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>561934.2196511707</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>559934.2196511707</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>560479.5279511707</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>555583.7622511707</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>552203.8060511707</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>540203.8060511707</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>537878.1751511707</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>546368.6640511707</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>597408.8062511707</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>597408.8062511707</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>588738.7982511707</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>590281.5554511707</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>590281.5554511707</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>590281.5554511707</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>596884.1722511706</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>617539.4071511707</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>617539.4071511707</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>617539.4071511707</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>639810.3165511707</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>639810.3165511707</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>630553.6635511706</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>1670861.907703097</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>1704885.346503097</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>1654180.619103097</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>1679018.849303097</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>1613357.547768503</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>1604424.023968503</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>1518746.183768503</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>1500349.153368503</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>1457264.102068503</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>1457264.102068503</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>1457264.102068503</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>1411255.451568503</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>1448976.734768503</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>1463494.595668503</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>1526522.729968503</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>1525807.729968503</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>1556337.729968503</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>1550977.298468503</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>1566597.942936788</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>1468956.423263074</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>1475429.158863074</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>1518371.033870702</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>1445968.381670702</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>1448041.397270703</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>1448032.581070703</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>1448032.581070703</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>1416854.687570703</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>1428860.930170703</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>1428838.292623454</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>1457768.942269629</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>1457760.595869629</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>1470542.700469629</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>1485748.727624941</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
